--- a/public/promo_codes.xlsx
+++ b/public/promo_codes.xlsx
@@ -1,46 +1,367 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hatim\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="7710"/>
   </bookViews>
   <sheets>
-    <sheet name="ورقة1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <definedNames>
+    <definedName name="Characters">Sheet1!#REF!</definedName>
+  </definedNames>
+  <calcPr calcId="152511"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="103">
+  <si>
+    <t>BKMOX</t>
+  </si>
+  <si>
+    <t>RB6A0</t>
+  </si>
+  <si>
+    <t>DDJNN</t>
+  </si>
+  <si>
+    <t>U14BW</t>
+  </si>
+  <si>
+    <t>LN7FZ</t>
+  </si>
+  <si>
+    <t>M7SAH</t>
+  </si>
+  <si>
+    <t>W9E2Y</t>
+  </si>
+  <si>
+    <t>UU1J4</t>
+  </si>
+  <si>
+    <t>4U826</t>
+  </si>
+  <si>
+    <t>E0ZF2</t>
+  </si>
+  <si>
+    <t>D5UGW</t>
+  </si>
+  <si>
+    <t>Z6D4K</t>
+  </si>
+  <si>
+    <t>ORKPI</t>
+  </si>
+  <si>
+    <t>JHE3P</t>
+  </si>
+  <si>
+    <t>XAU32</t>
+  </si>
+  <si>
+    <t>FLEV3</t>
+  </si>
+  <si>
+    <t>3Q3IN</t>
+  </si>
+  <si>
+    <t>GWYUD</t>
+  </si>
+  <si>
+    <t>S4K4S</t>
+  </si>
+  <si>
+    <t>VMSGH</t>
+  </si>
+  <si>
+    <t>ZWPRI</t>
+  </si>
+  <si>
+    <t>RRCMP</t>
+  </si>
+  <si>
+    <t>OWG4Q</t>
+  </si>
+  <si>
+    <t>ES81O</t>
+  </si>
+  <si>
+    <t>9DI85</t>
+  </si>
+  <si>
+    <t>OTA3Q</t>
+  </si>
+  <si>
+    <t>S41AH</t>
+  </si>
+  <si>
+    <t>UYIYT</t>
+  </si>
+  <si>
+    <t>DVECQ</t>
+  </si>
+  <si>
+    <t>UWNUE</t>
+  </si>
+  <si>
+    <t>400W3</t>
+  </si>
+  <si>
+    <t>TY8OU</t>
+  </si>
+  <si>
+    <t>EGNWG</t>
+  </si>
+  <si>
+    <t>M4YE8</t>
+  </si>
+  <si>
+    <t>5WGEX</t>
+  </si>
+  <si>
+    <t>EFDUK</t>
+  </si>
+  <si>
+    <t>AW7OO</t>
+  </si>
+  <si>
+    <t>RRYQ5</t>
+  </si>
+  <si>
+    <t>TVQ7F</t>
+  </si>
+  <si>
+    <t>AJWBQ</t>
+  </si>
+  <si>
+    <t>0W86R</t>
+  </si>
+  <si>
+    <t>AJZCF</t>
+  </si>
+  <si>
+    <t>8MRQY</t>
+  </si>
+  <si>
+    <t>FUSH4</t>
+  </si>
+  <si>
+    <t>PEGL9</t>
+  </si>
+  <si>
+    <t>CW2WV</t>
+  </si>
+  <si>
+    <t>LIH9Q</t>
+  </si>
+  <si>
+    <t>DTWTW</t>
+  </si>
+  <si>
+    <t>QVKIN</t>
+  </si>
+  <si>
+    <t>V626F</t>
+  </si>
+  <si>
+    <t>U1U03</t>
+  </si>
+  <si>
+    <t>G38QP</t>
+  </si>
+  <si>
+    <t>0QYM6</t>
+  </si>
+  <si>
+    <t>7MDWP</t>
+  </si>
+  <si>
+    <t>BZXVT</t>
+  </si>
+  <si>
+    <t>1D8C9</t>
+  </si>
+  <si>
+    <t>C1YM9</t>
+  </si>
+  <si>
+    <t>KBIAB</t>
+  </si>
+  <si>
+    <t>JW2T6</t>
+  </si>
+  <si>
+    <t>BCIGW</t>
+  </si>
+  <si>
+    <t>4BICS</t>
+  </si>
+  <si>
+    <t>BB5QF</t>
+  </si>
+  <si>
+    <t>GBBLU</t>
+  </si>
+  <si>
+    <t>17RC2</t>
+  </si>
+  <si>
+    <t>0O86D</t>
+  </si>
+  <si>
+    <t>VBO62</t>
+  </si>
+  <si>
+    <t>Z6DDA</t>
+  </si>
+  <si>
+    <t>5SMRX</t>
+  </si>
+  <si>
+    <t>YOQTD</t>
+  </si>
+  <si>
+    <t>E55H7</t>
+  </si>
+  <si>
+    <t>KTT2B</t>
+  </si>
+  <si>
+    <t>Y3M8K</t>
+  </si>
+  <si>
+    <t>5OXS0</t>
+  </si>
+  <si>
+    <t>LR4IP</t>
+  </si>
+  <si>
+    <t>ZXX3R</t>
+  </si>
+  <si>
+    <t>EZS4X</t>
+  </si>
+  <si>
+    <t>A161B</t>
+  </si>
+  <si>
+    <t>6PFJE</t>
+  </si>
+  <si>
+    <t>7C9HF</t>
+  </si>
+  <si>
+    <t>M84CJ</t>
+  </si>
+  <si>
+    <t>Y5EPZ</t>
+  </si>
+  <si>
+    <t>96KD2</t>
+  </si>
+  <si>
+    <t>UFP0X</t>
+  </si>
+  <si>
+    <t>MOBW7</t>
+  </si>
+  <si>
+    <t>FML9N</t>
+  </si>
+  <si>
+    <t>UO2VQ</t>
+  </si>
+  <si>
+    <t>POH38</t>
+  </si>
+  <si>
+    <t>QN2QC</t>
+  </si>
+  <si>
+    <t>KLLXF</t>
+  </si>
+  <si>
+    <t>0MRD6</t>
+  </si>
+  <si>
+    <t>HAZO2</t>
+  </si>
+  <si>
+    <t>G7QJH</t>
+  </si>
+  <si>
+    <t>D8K2T</t>
+  </si>
+  <si>
+    <t>G6Z9E</t>
+  </si>
+  <si>
+    <t>CDDOV</t>
+  </si>
+  <si>
+    <t>VYQ8W</t>
+  </si>
+  <si>
+    <t>O7JHJ</t>
+  </si>
+  <si>
+    <t>S3OK5</t>
+  </si>
+  <si>
+    <t>DC4ZO</t>
+  </si>
+  <si>
+    <t>5X3FP</t>
+  </si>
   <si>
     <t>code</t>
   </si>
   <si>
-    <t>type</t>
-  </si>
-  <si>
     <t>value</t>
   </si>
   <si>
-    <t>45d</t>
-  </si>
-  <si>
-    <t>fixed</t>
-  </si>
-  <si>
-    <t>percentage</t>
+    <t>status</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="20"/>
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -67,14 +388,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -87,7 +418,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="نسق Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -97,44 +428,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="1F497D"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="EEECE1"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4F81BD"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="C0504D"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="9BBB59"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8064A2"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4BACC6"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="F79646"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000FF"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="800080"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -162,14 +493,31 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -197,6 +545,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -208,217 +573,1689 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="35000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="80000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
+                <a:alpha val="63000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="40000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:D164"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="21.88671875" defaultRowHeight="25.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="4.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="36" style="2" customWidth="1"/>
+    <col min="2" max="3" width="21.88671875" style="4"/>
+    <col min="5" max="16384" width="21.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D1" s="1"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3">
+        <v>100</v>
+      </c>
+      <c r="C2" s="3">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="B3" s="3">
+        <v>100</v>
+      </c>
+      <c r="C3" s="3">
+        <v>0</v>
+      </c>
+      <c r="D3" s="1"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>562</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="B4" s="3">
+        <v>100</v>
+      </c>
+      <c r="C4" s="3">
+        <v>0</v>
+      </c>
+      <c r="D4" s="1"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="3">
+        <v>100</v>
+      </c>
+      <c r="C5" s="3">
+        <v>0</v>
+      </c>
+      <c r="D5" s="1"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C2">
+      <c r="B6" s="3">
+        <v>100</v>
+      </c>
+      <c r="C6" s="3">
+        <v>0</v>
+      </c>
+      <c r="D6" s="1"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="3">
+        <v>100</v>
+      </c>
+      <c r="C7" s="3">
+        <v>0</v>
+      </c>
+      <c r="D7" s="1"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="3">
+        <v>100</v>
+      </c>
+      <c r="C8" s="3">
+        <v>0</v>
+      </c>
+      <c r="D8" s="1"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="3">
+        <v>100</v>
+      </c>
+      <c r="C9" s="3">
+        <v>0</v>
+      </c>
+      <c r="D9" s="1"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="3">
+        <v>100</v>
+      </c>
+      <c r="C10" s="3">
+        <v>0</v>
+      </c>
+      <c r="D10" s="1"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="3">
+        <v>100</v>
+      </c>
+      <c r="C11" s="3">
+        <v>0</v>
+      </c>
+      <c r="D11" s="1"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="3">
+        <v>100</v>
+      </c>
+      <c r="C12" s="3">
+        <v>0</v>
+      </c>
+      <c r="D12" s="1"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A13" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="3">
+        <v>100</v>
+      </c>
+      <c r="C13" s="3">
+        <v>0</v>
+      </c>
+      <c r="D13" s="1"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A14" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="3">
+        <v>100</v>
+      </c>
+      <c r="C14" s="3">
+        <v>0</v>
+      </c>
+      <c r="D14" s="1"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A15" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="3">
+        <v>100</v>
+      </c>
+      <c r="C15" s="3">
+        <v>0</v>
+      </c>
+      <c r="D15" s="1"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A16" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="3">
+        <v>100</v>
+      </c>
+      <c r="C16" s="3">
+        <v>0</v>
+      </c>
+      <c r="D16" s="1"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A17" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="3">
+        <v>100</v>
+      </c>
+      <c r="C17" s="3">
+        <v>0</v>
+      </c>
+      <c r="D17" s="1"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A18" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="3">
+        <v>100</v>
+      </c>
+      <c r="C18" s="3">
+        <v>0</v>
+      </c>
+      <c r="D18" s="1"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A19" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="3">
+        <v>100</v>
+      </c>
+      <c r="C19" s="3">
+        <v>0</v>
+      </c>
+      <c r="D19" s="1"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A20" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="3">
+        <v>100</v>
+      </c>
+      <c r="C20" s="3">
+        <v>0</v>
+      </c>
+      <c r="D20" s="1"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A21" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="3">
+        <v>100</v>
+      </c>
+      <c r="C21" s="3">
+        <v>0</v>
+      </c>
+      <c r="D21" s="1"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A22" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" s="3">
+        <v>100</v>
+      </c>
+      <c r="C22" s="3">
+        <v>0</v>
+      </c>
+      <c r="D22" s="1"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A23" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" s="3">
+        <v>100</v>
+      </c>
+      <c r="C23" s="3">
+        <v>0</v>
+      </c>
+      <c r="D23" s="1"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A24" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24" s="3">
+        <v>100</v>
+      </c>
+      <c r="C24" s="3">
+        <v>0</v>
+      </c>
+      <c r="D24" s="1"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A25" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" s="3">
+        <v>100</v>
+      </c>
+      <c r="C25" s="3">
+        <v>0</v>
+      </c>
+      <c r="D25" s="1"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A26" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" s="3">
+        <v>100</v>
+      </c>
+      <c r="C26" s="3">
+        <v>0</v>
+      </c>
+      <c r="D26" s="1"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A27" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27" s="3">
+        <v>100</v>
+      </c>
+      <c r="C27" s="3">
+        <v>0</v>
+      </c>
+      <c r="D27" s="1"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A28" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B28" s="3">
+        <v>100</v>
+      </c>
+      <c r="C28" s="3">
+        <v>0</v>
+      </c>
+      <c r="D28" s="1"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A29" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B29" s="3">
+        <v>100</v>
+      </c>
+      <c r="C29" s="3">
+        <v>0</v>
+      </c>
+      <c r="D29" s="1"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A30" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B30" s="3">
+        <v>100</v>
+      </c>
+      <c r="C30" s="3">
+        <v>0</v>
+      </c>
+      <c r="D30" s="1"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A31" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B31" s="3">
+        <v>100</v>
+      </c>
+      <c r="C31" s="3">
+        <v>0</v>
+      </c>
+      <c r="D31" s="1"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A32" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B32" s="3">
+        <v>100</v>
+      </c>
+      <c r="C32" s="3">
+        <v>0</v>
+      </c>
+      <c r="D32" s="1"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A33" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B33" s="3">
+        <v>100</v>
+      </c>
+      <c r="C33" s="3">
+        <v>0</v>
+      </c>
+      <c r="D33" s="1"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A34" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B34" s="3">
+        <v>100</v>
+      </c>
+      <c r="C34" s="3">
+        <v>0</v>
+      </c>
+      <c r="D34" s="1"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A35" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B35" s="3">
+        <v>100</v>
+      </c>
+      <c r="C35" s="3">
+        <v>0</v>
+      </c>
+      <c r="D35" s="1"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A36" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B36" s="3">
+        <v>100</v>
+      </c>
+      <c r="C36" s="3">
+        <v>0</v>
+      </c>
+      <c r="D36" s="1"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A37" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B37" s="3">
+        <v>100</v>
+      </c>
+      <c r="C37" s="3">
+        <v>0</v>
+      </c>
+      <c r="D37" s="1"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A38" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B38" s="3">
+        <v>100</v>
+      </c>
+      <c r="C38" s="3">
+        <v>0</v>
+      </c>
+      <c r="D38" s="1"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A39" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B39" s="3">
+        <v>100</v>
+      </c>
+      <c r="C39" s="3">
+        <v>0</v>
+      </c>
+      <c r="D39" s="1"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A40" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B40" s="3">
+        <v>100</v>
+      </c>
+      <c r="C40" s="3">
+        <v>0</v>
+      </c>
+      <c r="D40" s="1"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A41" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B41" s="3">
+        <v>100</v>
+      </c>
+      <c r="C41" s="3">
+        <v>0</v>
+      </c>
+      <c r="D41" s="1"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A42" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B42" s="3">
+        <v>100</v>
+      </c>
+      <c r="C42" s="3">
+        <v>0</v>
+      </c>
+      <c r="D42" s="1"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A43" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B43" s="3">
+        <v>100</v>
+      </c>
+      <c r="C43" s="3">
+        <v>0</v>
+      </c>
+      <c r="D43" s="1"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A44" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B44" s="3">
+        <v>100</v>
+      </c>
+      <c r="C44" s="3">
+        <v>0</v>
+      </c>
+      <c r="D44" s="1"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A45" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B45" s="3">
+        <v>100</v>
+      </c>
+      <c r="C45" s="3">
+        <v>0</v>
+      </c>
+      <c r="D45" s="1"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A46" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B46" s="3">
+        <v>100</v>
+      </c>
+      <c r="C46" s="3">
+        <v>0</v>
+      </c>
+      <c r="D46" s="1"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A47" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B47" s="3">
+        <v>100</v>
+      </c>
+      <c r="C47" s="3">
+        <v>0</v>
+      </c>
+      <c r="D47" s="1"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A48" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B48" s="3">
+        <v>100</v>
+      </c>
+      <c r="C48" s="3">
+        <v>0</v>
+      </c>
+      <c r="D48" s="1"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A49" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B49" s="3">
+        <v>100</v>
+      </c>
+      <c r="C49" s="3">
+        <v>0</v>
+      </c>
+      <c r="D49" s="1"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A50" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B50" s="3">
+        <v>100</v>
+      </c>
+      <c r="C50" s="3">
+        <v>0</v>
+      </c>
+      <c r="D50" s="1"/>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A51" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B51" s="3">
+        <v>100</v>
+      </c>
+      <c r="C51" s="3">
+        <v>0</v>
+      </c>
+      <c r="D51" s="1"/>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A52" s="2" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3">
+      <c r="B52" s="3">
+        <v>100</v>
+      </c>
+      <c r="C52" s="3">
+        <v>0</v>
+      </c>
+      <c r="D52" s="1"/>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A53" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B53" s="3">
+        <v>100</v>
+      </c>
+      <c r="C53" s="3">
+        <v>0</v>
+      </c>
+      <c r="D53" s="1"/>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A54" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B54" s="3">
+        <v>100</v>
+      </c>
+      <c r="C54" s="3">
+        <v>0</v>
+      </c>
+      <c r="D54" s="1"/>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A55" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B55" s="3">
+        <v>100</v>
+      </c>
+      <c r="C55" s="3">
+        <v>0</v>
+      </c>
+      <c r="D55" s="1"/>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A56" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B56" s="3">
+        <v>100</v>
+      </c>
+      <c r="C56" s="3">
+        <v>0</v>
+      </c>
+      <c r="D56" s="1"/>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A57" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B57" s="3">
+        <v>100</v>
+      </c>
+      <c r="C57" s="3">
+        <v>0</v>
+      </c>
+      <c r="D57" s="1"/>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A58" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B58" s="3">
+        <v>100</v>
+      </c>
+      <c r="C58" s="3">
+        <v>0</v>
+      </c>
+      <c r="D58" s="1"/>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A59" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B59" s="3">
+        <v>100</v>
+      </c>
+      <c r="C59" s="3">
+        <v>0</v>
+      </c>
+      <c r="D59" s="1"/>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A60" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B60" s="3">
+        <v>100</v>
+      </c>
+      <c r="C60" s="3">
+        <v>0</v>
+      </c>
+      <c r="D60" s="1"/>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A61" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B61" s="3">
+        <v>100</v>
+      </c>
+      <c r="C61" s="3">
+        <v>0</v>
+      </c>
+      <c r="D61" s="1"/>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A62" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B62" s="3">
+        <v>100</v>
+      </c>
+      <c r="C62" s="3">
+        <v>0</v>
+      </c>
+      <c r="D62" s="1"/>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A63" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B63" s="3">
+        <v>100</v>
+      </c>
+      <c r="C63" s="3">
+        <v>0</v>
+      </c>
+      <c r="D63" s="1"/>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A64" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B64" s="3">
+        <v>100</v>
+      </c>
+      <c r="C64" s="3">
+        <v>0</v>
+      </c>
+      <c r="D64" s="1"/>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A65" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B65" s="3">
+        <v>100</v>
+      </c>
+      <c r="C65" s="3">
+        <v>0</v>
+      </c>
+      <c r="D65" s="1"/>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A66" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B66" s="3">
+        <v>100</v>
+      </c>
+      <c r="C66" s="3">
+        <v>0</v>
+      </c>
+      <c r="D66" s="1"/>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A67" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B67" s="3">
+        <v>100</v>
+      </c>
+      <c r="C67" s="3">
+        <v>0</v>
+      </c>
+      <c r="D67" s="1"/>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A68" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B68" s="3">
+        <v>100</v>
+      </c>
+      <c r="C68" s="3">
+        <v>0</v>
+      </c>
+      <c r="D68" s="1"/>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A69" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B69" s="3">
+        <v>100</v>
+      </c>
+      <c r="C69" s="3">
+        <v>0</v>
+      </c>
+      <c r="D69" s="1"/>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A70" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B70" s="3">
+        <v>100</v>
+      </c>
+      <c r="C70" s="3">
+        <v>0</v>
+      </c>
+      <c r="D70" s="1"/>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A71" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B71" s="3">
+        <v>100</v>
+      </c>
+      <c r="C71" s="3">
+        <v>0</v>
+      </c>
+      <c r="D71" s="1"/>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A72" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B72" s="3">
+        <v>100</v>
+      </c>
+      <c r="C72" s="3">
+        <v>0</v>
+      </c>
+      <c r="D72" s="1"/>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A73" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B73" s="3">
+        <v>100</v>
+      </c>
+      <c r="C73" s="3">
+        <v>0</v>
+      </c>
+      <c r="D73" s="1"/>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A74" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B74" s="3">
+        <v>100</v>
+      </c>
+      <c r="C74" s="3">
+        <v>0</v>
+      </c>
+      <c r="D74" s="1"/>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A75" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B75" s="3">
+        <v>100</v>
+      </c>
+      <c r="C75" s="3">
+        <v>0</v>
+      </c>
+      <c r="D75" s="1"/>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A76" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B76" s="3">
+        <v>100</v>
+      </c>
+      <c r="C76" s="3">
+        <v>0</v>
+      </c>
+      <c r="D76" s="1"/>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A77" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B77" s="3">
+        <v>100</v>
+      </c>
+      <c r="C77" s="3">
+        <v>0</v>
+      </c>
+      <c r="D77" s="1"/>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A78" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B78" s="3">
+        <v>100</v>
+      </c>
+      <c r="C78" s="3">
+        <v>0</v>
+      </c>
+      <c r="D78" s="1"/>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A79" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B79" s="3">
+        <v>100</v>
+      </c>
+      <c r="C79" s="3">
+        <v>0</v>
+      </c>
+      <c r="D79" s="1"/>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A80" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B80" s="3">
+        <v>100</v>
+      </c>
+      <c r="C80" s="3">
+        <v>0</v>
+      </c>
+      <c r="D80" s="1"/>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A81" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B81" s="3">
+        <v>100</v>
+      </c>
+      <c r="C81" s="3">
+        <v>0</v>
+      </c>
+      <c r="D81" s="1"/>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A82" s="2" t="s">
         <v>80</v>
       </c>
+      <c r="B82" s="3">
+        <v>100</v>
+      </c>
+      <c r="C82" s="3">
+        <v>0</v>
+      </c>
+      <c r="D82" s="1"/>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A83" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B83" s="3">
+        <v>100</v>
+      </c>
+      <c r="C83" s="3">
+        <v>0</v>
+      </c>
+      <c r="D83" s="1"/>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A84" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B84" s="3">
+        <v>100</v>
+      </c>
+      <c r="C84" s="3">
+        <v>0</v>
+      </c>
+      <c r="D84" s="1"/>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A85" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B85" s="3">
+        <v>100</v>
+      </c>
+      <c r="C85" s="3">
+        <v>0</v>
+      </c>
+      <c r="D85" s="1"/>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A86" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B86" s="3">
+        <v>100</v>
+      </c>
+      <c r="C86" s="3">
+        <v>0</v>
+      </c>
+      <c r="D86" s="1"/>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A87" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B87" s="3">
+        <v>100</v>
+      </c>
+      <c r="C87" s="3">
+        <v>0</v>
+      </c>
+      <c r="D87" s="1"/>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A88" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B88" s="3">
+        <v>100</v>
+      </c>
+      <c r="C88" s="3">
+        <v>0</v>
+      </c>
+      <c r="D88" s="1"/>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A89" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B89" s="3">
+        <v>100</v>
+      </c>
+      <c r="C89" s="3">
+        <v>0</v>
+      </c>
+      <c r="D89" s="1"/>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A90" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B90" s="3">
+        <v>100</v>
+      </c>
+      <c r="C90" s="3">
+        <v>0</v>
+      </c>
+      <c r="D90" s="1"/>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A91" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B91" s="3">
+        <v>100</v>
+      </c>
+      <c r="C91" s="3">
+        <v>0</v>
+      </c>
+      <c r="D91" s="1"/>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A92" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B92" s="3">
+        <v>100</v>
+      </c>
+      <c r="C92" s="3">
+        <v>0</v>
+      </c>
+      <c r="D92" s="1"/>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A93" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B93" s="3">
+        <v>100</v>
+      </c>
+      <c r="C93" s="3">
+        <v>0</v>
+      </c>
+      <c r="D93" s="1"/>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A94" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B94" s="3">
+        <v>100</v>
+      </c>
+      <c r="C94" s="3">
+        <v>0</v>
+      </c>
+      <c r="D94" s="1"/>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A95" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B95" s="3">
+        <v>100</v>
+      </c>
+      <c r="C95" s="3">
+        <v>0</v>
+      </c>
+      <c r="D95" s="1"/>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A96" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B96" s="3">
+        <v>100</v>
+      </c>
+      <c r="C96" s="3">
+        <v>0</v>
+      </c>
+      <c r="D96" s="1"/>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A97" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B97" s="3">
+        <v>100</v>
+      </c>
+      <c r="C97" s="3">
+        <v>0</v>
+      </c>
+      <c r="D97" s="1"/>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A98" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B98" s="3">
+        <v>100</v>
+      </c>
+      <c r="C98" s="3">
+        <v>0</v>
+      </c>
+      <c r="D98" s="1"/>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A99" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B99" s="3">
+        <v>100</v>
+      </c>
+      <c r="C99" s="3">
+        <v>0</v>
+      </c>
+      <c r="D99" s="1"/>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A100" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B100" s="3">
+        <v>100</v>
+      </c>
+      <c r="C100" s="3">
+        <v>0</v>
+      </c>
+      <c r="D100" s="1"/>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A101" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B101" s="3">
+        <v>100</v>
+      </c>
+      <c r="C101" s="3">
+        <v>0</v>
+      </c>
+      <c r="D101" s="1"/>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B102" s="3"/>
+      <c r="C102" s="3"/>
+      <c r="D102" s="1"/>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B103" s="3"/>
+      <c r="C103" s="3"/>
+      <c r="D103" s="1"/>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B104" s="3"/>
+      <c r="C104" s="3"/>
+      <c r="D104" s="1"/>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B105" s="3"/>
+      <c r="C105" s="3"/>
+      <c r="D105" s="1"/>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B106" s="3"/>
+      <c r="C106" s="3"/>
+      <c r="D106" s="1"/>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B107" s="3"/>
+      <c r="C107" s="3"/>
+      <c r="D107" s="1"/>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B108" s="3"/>
+      <c r="C108" s="3"/>
+      <c r="D108" s="1"/>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B109" s="3"/>
+      <c r="C109" s="3"/>
+      <c r="D109" s="1"/>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B110" s="3"/>
+      <c r="C110" s="3"/>
+      <c r="D110" s="1"/>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B111" s="3"/>
+      <c r="C111" s="3"/>
+      <c r="D111" s="1"/>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B112" s="3"/>
+      <c r="C112" s="3"/>
+      <c r="D112" s="1"/>
+    </row>
+    <row r="113" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B113" s="3"/>
+      <c r="C113" s="3"/>
+      <c r="D113" s="1"/>
+    </row>
+    <row r="114" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B114" s="3"/>
+      <c r="C114" s="3"/>
+      <c r="D114" s="1"/>
+    </row>
+    <row r="115" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B115" s="3"/>
+      <c r="C115" s="3"/>
+      <c r="D115" s="1"/>
+    </row>
+    <row r="116" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B116" s="3"/>
+      <c r="C116" s="3"/>
+      <c r="D116" s="1"/>
+    </row>
+    <row r="117" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B117" s="3"/>
+      <c r="C117" s="3"/>
+      <c r="D117" s="1"/>
+    </row>
+    <row r="118" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B118" s="3"/>
+      <c r="C118" s="3"/>
+      <c r="D118" s="1"/>
+    </row>
+    <row r="119" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B119" s="3"/>
+      <c r="C119" s="3"/>
+      <c r="D119" s="1"/>
+    </row>
+    <row r="120" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B120" s="3"/>
+      <c r="C120" s="3"/>
+      <c r="D120" s="1"/>
+    </row>
+    <row r="121" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B121" s="3"/>
+      <c r="C121" s="3"/>
+      <c r="D121" s="1"/>
+    </row>
+    <row r="122" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B122" s="3"/>
+      <c r="C122" s="3"/>
+      <c r="D122" s="1"/>
+    </row>
+    <row r="123" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B123" s="3"/>
+      <c r="C123" s="3"/>
+      <c r="D123" s="1"/>
+    </row>
+    <row r="124" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B124" s="3"/>
+      <c r="C124" s="3"/>
+      <c r="D124" s="1"/>
+    </row>
+    <row r="125" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B125" s="3"/>
+      <c r="C125" s="3"/>
+      <c r="D125" s="1"/>
+    </row>
+    <row r="126" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B126" s="3"/>
+      <c r="C126" s="3"/>
+      <c r="D126" s="1"/>
+    </row>
+    <row r="127" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B127" s="3"/>
+      <c r="C127" s="3"/>
+      <c r="D127" s="1"/>
+    </row>
+    <row r="128" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B128" s="3"/>
+      <c r="C128" s="3"/>
+      <c r="D128" s="1"/>
+    </row>
+    <row r="129" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B129" s="3"/>
+      <c r="C129" s="3"/>
+      <c r="D129" s="1"/>
+    </row>
+    <row r="130" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B130" s="3"/>
+      <c r="C130" s="3"/>
+      <c r="D130" s="1"/>
+    </row>
+    <row r="131" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B131" s="3"/>
+      <c r="C131" s="3"/>
+      <c r="D131" s="1"/>
+    </row>
+    <row r="132" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B132" s="3"/>
+      <c r="C132" s="3"/>
+      <c r="D132" s="1"/>
+    </row>
+    <row r="133" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B133" s="3"/>
+      <c r="C133" s="3"/>
+      <c r="D133" s="1"/>
+    </row>
+    <row r="134" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B134" s="3"/>
+      <c r="C134" s="3"/>
+      <c r="D134" s="1"/>
+    </row>
+    <row r="135" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B135" s="3"/>
+      <c r="C135" s="3"/>
+      <c r="D135" s="1"/>
+    </row>
+    <row r="136" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B136" s="3"/>
+      <c r="C136" s="3"/>
+      <c r="D136" s="1"/>
+    </row>
+    <row r="137" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B137" s="3"/>
+      <c r="C137" s="3"/>
+      <c r="D137" s="1"/>
+    </row>
+    <row r="138" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B138" s="3"/>
+      <c r="C138" s="3"/>
+      <c r="D138" s="1"/>
+    </row>
+    <row r="139" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B139" s="3"/>
+      <c r="C139" s="3"/>
+      <c r="D139" s="1"/>
+    </row>
+    <row r="140" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B140" s="3"/>
+      <c r="C140" s="3"/>
+      <c r="D140" s="1"/>
+    </row>
+    <row r="141" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B141" s="3"/>
+      <c r="C141" s="3"/>
+      <c r="D141" s="1"/>
+    </row>
+    <row r="142" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B142" s="3"/>
+      <c r="C142" s="3"/>
+      <c r="D142" s="1"/>
+    </row>
+    <row r="143" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B143" s="3"/>
+      <c r="C143" s="3"/>
+      <c r="D143" s="1"/>
+    </row>
+    <row r="144" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B144" s="3"/>
+      <c r="C144" s="3"/>
+      <c r="D144" s="1"/>
+    </row>
+    <row r="145" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B145" s="3"/>
+      <c r="C145" s="3"/>
+      <c r="D145" s="1"/>
+    </row>
+    <row r="146" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B146" s="3"/>
+      <c r="C146" s="3"/>
+      <c r="D146" s="1"/>
+    </row>
+    <row r="147" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B147" s="3"/>
+      <c r="C147" s="3"/>
+      <c r="D147" s="1"/>
+    </row>
+    <row r="148" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B148" s="3"/>
+      <c r="C148" s="3"/>
+      <c r="D148" s="1"/>
+    </row>
+    <row r="149" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B149" s="3"/>
+      <c r="C149" s="3"/>
+      <c r="D149" s="1"/>
+    </row>
+    <row r="150" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B150" s="3"/>
+      <c r="C150" s="3"/>
+      <c r="D150" s="1"/>
+    </row>
+    <row r="151" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B151" s="3"/>
+      <c r="C151" s="3"/>
+      <c r="D151" s="1"/>
+    </row>
+    <row r="152" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B152" s="3"/>
+      <c r="C152" s="3"/>
+      <c r="D152" s="1"/>
+    </row>
+    <row r="153" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B153" s="3"/>
+      <c r="C153" s="3"/>
+      <c r="D153" s="1"/>
+    </row>
+    <row r="154" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B154" s="3"/>
+      <c r="C154" s="3"/>
+      <c r="D154" s="1"/>
+    </row>
+    <row r="155" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B155" s="3"/>
+      <c r="C155" s="3"/>
+      <c r="D155" s="1"/>
+    </row>
+    <row r="156" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B156" s="3"/>
+      <c r="C156" s="3"/>
+      <c r="D156" s="1"/>
+    </row>
+    <row r="157" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B157" s="3"/>
+      <c r="C157" s="3"/>
+      <c r="D157" s="1"/>
+    </row>
+    <row r="158" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B158" s="3"/>
+      <c r="C158" s="3"/>
+      <c r="D158" s="1"/>
+    </row>
+    <row r="159" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B159" s="3"/>
+      <c r="C159" s="3"/>
+      <c r="D159" s="1"/>
+    </row>
+    <row r="160" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B160" s="3"/>
+      <c r="C160" s="3"/>
+      <c r="D160" s="1"/>
+    </row>
+    <row r="161" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B161" s="3"/>
+      <c r="C161" s="3"/>
+      <c r="D161" s="1"/>
+    </row>
+    <row r="162" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B162" s="3"/>
+      <c r="C162" s="3"/>
+      <c r="D162" s="1"/>
+    </row>
+    <row r="163" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B163" s="3"/>
+      <c r="C163" s="3"/>
+      <c r="D163" s="1"/>
+    </row>
+    <row r="164" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B164" s="3"/>
+      <c r="C164" s="3"/>
+      <c r="D164" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>